--- a/biology/Zoologie/Dinohippus/Dinohippus.xlsx
+++ b/biology/Zoologie/Dinohippus/Dinohippus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinohippus était le genre de chevaux le plus répandu en Amérique du Nord au cours du Pliocène supérieur. Il a vraisemblablement donné naissance au genre Equus. Comme Equus, Dinohippus n'avait pas un chanfrein concave.
-Equus possède un « stay apparatus » caractéristique, il s'agit d'un système formé par les os et les tendons pour l'aider à se tenir debout pendant de longues périodes sans dépenser son énergie. Dinohippus est le premier cheval à présenter une forme encore rudimentaire de ce caractère, ce qui est une preuve de plus des rapports étroits entre Dinohippus et Equus[1].
-On a cru à l'origine que Dinohippus était un cheval monodactyle (avec un seul doigt), mais un fossile de 1981 trouvé dans le Nebraska montre que certains représentants étaient tridactyles (avec trois doigts)[2].
+Equus possède un « stay apparatus » caractéristique, il s'agit d'un système formé par les os et les tendons pour l'aider à se tenir debout pendant de longues périodes sans dépenser son énergie. Dinohippus est le premier cheval à présenter une forme encore rudimentaire de ce caractère, ce qui est une preuve de plus des rapports étroits entre Dinohippus et Equus.
+On a cru à l'origine que Dinohippus était un cheval monodactyle (avec un seul doigt), mais un fossile de 1981 trouvé dans le Nebraska montre que certains représentants étaient tridactyles (avec trois doigts).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (15 mars 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (15 mars 2019) :
 Dinohippus edensis
 Dinohippus interpolatus Cope, 1893 †
 Dinohippus leardi Drescher, 1941 †
@@ -524,7 +538,7 @@
 Dinohippus osborni
 Dinohippus pachyops
 Dinohippus subvenus
-Espèces auxquelles BioLib                    (15 mars 2019)[4] ajoute :
+Espèces auxquelles BioLib                    (15 mars 2019) ajoute :
 Dinohippus coalingensis Merriam, 1914 †
 Dinohippus spectans Cope, 1880 †</t>
         </is>
